--- a/data/trans_camb/PCS12_SP_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 11,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 13,0</t>
+          <t>-2,05; 11,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 18,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 17,17</t>
+          <t>2,56; 16,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 12,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,55</t>
+          <t>2,38; 12,13</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>36,34%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 86,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 97,61</t>
+          <t>-11,33; 85,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 89,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 88,05</t>
+          <t>9,16; 83,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,06; 71,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 78,65</t>
+          <t>10,13; 69,61</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 12,64</t>
+          <t>1,32; 11,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,35</t>
+          <t>-5,79; 4,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 7,18</t>
+          <t>-1,23; 6,37</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 93,62</t>
+          <t>6,44; 85,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 19,06</t>
+          <t>-16,65; 17,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 33,39</t>
+          <t>-4,97; 29,94</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>7,62</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 19,32</t>
+          <t>7,17; 18,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,96</t>
+          <t>-3,39; 8,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,27</t>
+          <t>3,36; 11,8</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,99%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>36,45%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,35; 196,08</t>
+          <t>45,11; 188,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 35,17</t>
+          <t>-10,88; 34,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,29; 65,64</t>
+          <t>14,44; 63,07</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>5,55</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 12,19</t>
+          <t>2,06; 13,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 19,61</t>
+          <t>4,34; 18,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 13,95</t>
+          <t>2,6; 15,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 12,24</t>
+          <t>-11,74; 8,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 11,61</t>
+          <t>4,13; 12,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,53</t>
+          <t>-2,91; 11,03</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>80,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,71; 107,45</t>
+          <t>11,59; 119,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,92; 167,76</t>
+          <t>28,37; 162,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,32; 57,36</t>
+          <t>8,94; 65,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 49,22</t>
+          <t>-39,14; 32,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,57; 61,97</t>
+          <t>19,2; 69,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,47; 71,41</t>
+          <t>-10,7; 57,08</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 8,33</t>
+          <t>-4,62; 8,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 10,2</t>
+          <t>-4,32; 10,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,93</t>
+          <t>-1,71; 8,03</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 79,23</t>
+          <t>-27,23; 79,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 63,23</t>
+          <t>-16,78; 63,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 55,84</t>
+          <t>-9,77; 56,35</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>9,19</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,15; 18,79</t>
+          <t>4,72; 18,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,09; 13,65</t>
+          <t>0,06; 13,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,69</t>
+          <t>4,16; 14,35</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>37,94%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>24,72; 138,58</t>
+          <t>22,97; 135,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,26; 50,74</t>
+          <t>0,17; 50,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>16,09; 67,41</t>
+          <t>15,08; 66,27</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,22; 9,65</t>
+          <t>0,66; 9,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 6,74</t>
+          <t>-16,28; 6,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 7,11</t>
+          <t>-7,87; 5,93</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>7,24; 70,79</t>
+          <t>3,2; 65,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 27,24</t>
+          <t>-56,32; 25,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 36,86</t>
+          <t>-34,71; 29,72</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>21,21</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>11,31</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 19,95</t>
+          <t>-1,7; 54,61</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,2</t>
+          <t>-4,06; 4,18</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 10,34</t>
+          <t>-1,19; 38,15</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>120,53%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>50,75%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 134,44</t>
+          <t>-8,94; 354,8</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 17,78</t>
+          <t>-14,15; 17,73</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 47,44</t>
+          <t>-5,26; 172,31</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>6,04</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,15</t>
+          <t>5,14; 27,26</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,69</t>
+          <t>-4,8; 3,81</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,86</t>
+          <t>2,64; 14,62</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>71,42%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>29,71; 71,86</t>
+          <t>31,6; 174,7</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 17,82</t>
+          <t>-17,15; 14,44</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>14,3; 32,76</t>
+          <t>12,06; 68,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 11,25</t>
+          <t>-2,43; 10,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 10,64</t>
+          <t>-3,11; 10,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 11,5</t>
+          <t>-1,87; 11,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 18,34</t>
+          <t>2,61; 18,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,12</t>
+          <t>3,24; 18,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 16,47</t>
+          <t>2,72; 16,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,9</t>
+          <t>2,59; 12,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,67</t>
+          <t>2,27; 13,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 12,13</t>
+          <t>2,4; 11,99</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 86,3</t>
+          <t>-12,91; 81,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 78,42</t>
+          <t>-16,06; 77,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 85,86</t>
+          <t>-9,53; 86,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 89,86</t>
+          <t>9,52; 92,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 94,54</t>
+          <t>10,53; 91,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 83,93</t>
+          <t>10,2; 89,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,06; 71,92</t>
+          <t>9,84; 71,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 70,98</t>
+          <t>9,65; 76,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 69,61</t>
+          <t>9,65; 66,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 4,45</t>
+          <t>-5,38; 4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,09</t>
+          <t>-6,69; 2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,6</t>
+          <t>0,67; 12,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,19</t>
+          <t>-8,12; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -3,15</t>
+          <t>-13,97; -2,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,97</t>
+          <t>-6,24; 4,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 2,59</t>
+          <t>-5,49; 2,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; -1,46</t>
+          <t>-9,42; -1,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 6,37</t>
+          <t>-1,27; 7,0</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 34,05</t>
+          <t>-29,85; 32,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 17,82</t>
+          <t>-37,27; 16,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 85,79</t>
+          <t>2,46; 85,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 11,21</t>
+          <t>-23,69; 12,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,09; -11,3</t>
+          <t>-42,1; -8,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 17,91</t>
+          <t>-18,4; 16,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 11,67</t>
+          <t>-22,02; 9,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,81; -6,59</t>
+          <t>-36,81; -8,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 29,94</t>
+          <t>-5,12; 33,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 8,56</t>
+          <t>-2,67; 8,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,98</t>
+          <t>-4,7; 5,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 18,53</t>
+          <t>6,89; 18,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 3,74</t>
+          <t>-9,3; 4,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -2,36</t>
+          <t>-15,35; -2,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,8</t>
+          <t>-2,86; 9,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,66</t>
+          <t>-4,26; 4,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -0,17</t>
+          <t>-8,57; -0,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,8</t>
+          <t>3,13; 11,9</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 83,79</t>
+          <t>-17,55; 81,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 57,77</t>
+          <t>-29,24; 56,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,11; 188,59</t>
+          <t>42,85; 172,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 14,86</t>
+          <t>-30,03; 17,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,41; -8,88</t>
+          <t>-48,7; -9,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 34,25</t>
+          <t>-9,05; 37,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 25,38</t>
+          <t>-18,71; 23,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,36; -0,79</t>
+          <t>-37,14; -0,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,44; 63,07</t>
+          <t>13,77; 62,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,32</t>
+          <t>2,05; 13,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 14,86</t>
+          <t>3,53; 14,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 18,63</t>
+          <t>4,19; 17,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 15,97</t>
+          <t>2,99; 16,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 16,58</t>
+          <t>1,87; 15,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 8,26</t>
+          <t>-11,87; 8,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 12,84</t>
+          <t>3,78; 12,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 14,03</t>
+          <t>4,54; 13,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 11,03</t>
+          <t>-2,12; 11,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,59; 119,63</t>
+          <t>12,25; 117,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,93; 131,02</t>
+          <t>18,06; 124,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,37; 162,49</t>
+          <t>24,6; 150,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,94; 65,2</t>
+          <t>10,43; 67,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 67,85</t>
+          <t>6,05; 63,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 32,88</t>
+          <t>-39,77; 30,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,2; 69,68</t>
+          <t>16,1; 68,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,13; 73,44</t>
+          <t>19,48; 71,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 57,08</t>
+          <t>-7,64; 56,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 16,62</t>
+          <t>1,29; 16,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 7,41</t>
+          <t>-5,58; 7,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,3</t>
+          <t>-4,98; 7,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,62; 25,4</t>
+          <t>7,39; 26,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 9,36</t>
+          <t>-6,45; 9,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 10,3</t>
+          <t>-4,69; 9,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,76</t>
+          <t>6,53; 18,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,31</t>
+          <t>-3,96; 6,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 8,03</t>
+          <t>-2,18; 7,16</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,84; 164,2</t>
+          <t>8,05; 161,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 68,05</t>
+          <t>-34,16; 74,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 79,81</t>
+          <t>-27,79; 75,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28,54; 150,26</t>
+          <t>28,91; 153,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 58,79</t>
+          <t>-24,59; 56,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 63,89</t>
+          <t>-16,82; 55,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>32,32; 123,35</t>
+          <t>32,72; 128,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 41,39</t>
+          <t>-20,14; 43,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 56,35</t>
+          <t>-10,03; 49,54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 12,51</t>
+          <t>-1,4; 11,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 13,74</t>
+          <t>0,15; 13,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,72; 18,43</t>
+          <t>5,13; 18,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 6,7</t>
+          <t>-9,24; 6,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 7,93</t>
+          <t>-9,4; 7,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 13,57</t>
+          <t>-0,22; 13,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,84</t>
+          <t>-3,18; 6,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 8,68</t>
+          <t>-2,74; 8,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,16; 14,35</t>
+          <t>4,47; 14,18</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 90,18</t>
+          <t>-7,17; 89,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 103,05</t>
+          <t>0,76; 105,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,97; 135,84</t>
+          <t>23,29; 137,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 25,64</t>
+          <t>-26,52; 24,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 30,58</t>
+          <t>-27,15; 26,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,17; 50,58</t>
+          <t>-0,77; 51,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 31,54</t>
+          <t>-11,83; 33,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 40,11</t>
+          <t>-10,67; 37,6</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>15,08; 66,27</t>
+          <t>16,19; 67,29</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 3,16</t>
+          <t>-4,94; 3,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,96</t>
+          <t>-1,62; 7,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 9,0</t>
+          <t>0,44; 9,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 6,2</t>
+          <t>-3,52; 6,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,49</t>
+          <t>-4,21; 5,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 6,38</t>
+          <t>-16,06; 6,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,46</t>
+          <t>-3,02; 3,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,89</t>
+          <t>-1,41; 5,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 5,93</t>
+          <t>-7,63; 6,0</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 23,63</t>
+          <t>-27,03; 25,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 50,99</t>
+          <t>-9,15; 52,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,2; 65,44</t>
+          <t>2,48; 68,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 26,99</t>
+          <t>-12,72; 26,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 23,95</t>
+          <t>-15,48; 21,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 25,15</t>
+          <t>-57,27; 27,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 17,87</t>
+          <t>-13,31; 19,25</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 26,18</t>
+          <t>-6,47; 27,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 29,72</t>
+          <t>-33,06; 30,17</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,54</t>
+          <t>-4,51; 3,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-8,88; -1,56</t>
+          <t>-8,8; -1,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 54,61</t>
+          <t>-2,26; 54,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,96</t>
+          <t>-6,43; 2,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 0,0</t>
+          <t>-8,95; 0,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,18</t>
+          <t>-4,14; 4,53</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,41</t>
+          <t>-4,28; 1,82</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -1,95</t>
+          <t>-7,76; -1,88</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 38,15</t>
+          <t>-0,89; 36,14</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 22,16</t>
+          <t>-23,28; 22,02</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-45,43; -10,21</t>
+          <t>-45,15; -10,12</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 354,8</t>
+          <t>-12,16; 342,03</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 8,16</t>
+          <t>-22,37; 9,78</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 0,01</t>
+          <t>-31,17; 1,05</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 17,73</t>
+          <t>-14,12; 19,16</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 6,6</t>
+          <t>-18,29; 8,85</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-32,43; -9,41</t>
+          <t>-32,78; -8,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 172,31</t>
+          <t>-3,96; 159,67</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,93</t>
+          <t>0,34; 3,92</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,69</t>
+          <t>-0,95; 2,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,14; 27,26</t>
+          <t>5,13; 30,73</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,12</t>
+          <t>-0,29; 4,1</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,29</t>
+          <t>-3,24; 0,98</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,81</t>
+          <t>-3,58; 3,88</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,48</t>
+          <t>0,57; 3,45</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,41</t>
+          <t>-1,58; 1,44</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,64; 14,62</t>
+          <t>2,55; 13,98</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0,95; 26,72</t>
+          <t>1,82; 26,22</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 17,92</t>
+          <t>-5,87; 18,29</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>31,6; 174,7</t>
+          <t>31,91; 197,18</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 15,62</t>
+          <t>-1,05; 15,83</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 4,87</t>
+          <t>-11,55; 3,73</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 14,44</t>
+          <t>-12,85; 14,6</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2,54; 16,61</t>
+          <t>2,52; 16,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 6,8</t>
+          <t>-7,08; 6,87</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>12,06; 68,22</t>
+          <t>11,77; 66,1</t>
         </is>
       </c>
     </row>
